--- a/pcb_experiment/coeff125ch.xlsx
+++ b/pcb_experiment/coeff125ch.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/labo/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03269292-4CA8-43C6-B4B1-E69AA19AEC03}"/>
+  <xr:revisionPtr revIDLastSave="852" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950AB0D1-A32D-4AD4-A6CE-78A3701F7077}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="940" windowWidth="10060" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="221219 " sheetId="2" r:id="rId1"/>
-    <sheet name="0" sheetId="1" r:id="rId2"/>
+    <sheet name="230103" sheetId="3" r:id="rId1"/>
+    <sheet name="221219 " sheetId="2" r:id="rId2"/>
+    <sheet name="0" sheetId="1" r:id="rId3"/>
+    <sheet name="p_ch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="22">
   <si>
     <t>dtacq_num</t>
     <phoneticPr fontId="1"/>
@@ -477,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE9915-ACF9-4417-A532-C14E27F63D35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C83F073-7BC0-44D0-A47E-A319DD90CC77}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -579,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">(E2-1)*25+F2</f>
+        <f t="shared" ref="G2:G63" si="0">(E2-1)*25+F2</f>
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -789,10 +791,10 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -837,10 +839,10 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -1989,10 +1991,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>16</v>
@@ -2117,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="1">(E34-1)*25+F34</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H34" t="s">
@@ -2165,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H35" t="s">
@@ -2213,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H36" t="s">
@@ -2261,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H37" t="s">
@@ -2309,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H38" t="s">
@@ -2357,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H39" t="s">
@@ -2405,7 +2407,7 @@
         <v>15</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H40" t="s">
@@ -2453,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H41" t="s">
@@ -2501,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H42" t="s">
@@ -2549,7 +2551,7 @@
         <v>20</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H43" t="s">
@@ -2597,7 +2599,7 @@
         <v>23</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="H44" t="s">
@@ -2645,7 +2647,7 @@
         <v>24</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H45" t="s">
@@ -2693,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="H46" t="s">
@@ -2709,10 +2711,10 @@
         <v>0.79</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>23</v>
@@ -2741,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="H47" t="s">
@@ -2789,7 +2791,7 @@
         <v>6</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="H48" t="s">
@@ -2837,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H49" t="s">
@@ -2885,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="H50" t="s">
@@ -2933,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H51" t="s">
@@ -2949,10 +2951,10 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="M51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>26</v>
@@ -2981,7 +2983,7 @@
         <v>14</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="H52" t="s">
@@ -3029,7 +3031,7 @@
         <v>15</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H53" t="s">
@@ -3077,7 +3079,7 @@
         <v>18</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="H54" t="s">
@@ -3125,7 +3127,7 @@
         <v>19</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H55" t="s">
@@ -3173,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="H56" t="s">
@@ -3221,7 +3223,7 @@
         <v>23</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="H57" t="s">
@@ -3269,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="H58" t="s">
@@ -3317,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="H59" t="s">
@@ -3365,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="H60" t="s">
@@ -3413,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="H61" t="s">
@@ -3461,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="H62" t="s">
@@ -3477,10 +3479,10 @@
         <v>0.88</v>
       </c>
       <c r="M62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>31</v>
@@ -3509,7 +3511,7 @@
         <v>10</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H63" t="s">
@@ -3583,7 +3585,7 @@
         <v>13</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:G96" si="2">(E65-1)*25+F65+1</f>
+        <f t="shared" ref="G65:G127" si="1">(E65-1)*25+F65+1</f>
         <v>64</v>
       </c>
       <c r="H65" t="s">
@@ -3631,7 +3633,7 @@
         <v>14</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="H66" t="s">
@@ -3647,10 +3649,10 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="M66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>65</v>
@@ -3679,7 +3681,7 @@
         <v>15</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="H67" t="s">
@@ -3727,7 +3729,7 @@
         <v>18</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="H68" t="s">
@@ -3775,7 +3777,7 @@
         <v>19</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H69" t="s">
@@ -3823,7 +3825,7 @@
         <v>22</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="H70" t="s">
@@ -3871,7 +3873,7 @@
         <v>23</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="H71" t="s">
@@ -3919,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="H72" t="s">
@@ -3967,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H73" t="s">
@@ -4015,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="H74" t="s">
@@ -4063,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H75" t="s">
@@ -4111,7 +4113,7 @@
         <v>9</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="H76" t="s">
@@ -4127,10 +4129,10 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="M76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>101</v>
@@ -4159,7 +4161,7 @@
         <v>10</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="H77" t="s">
@@ -4207,7 +4209,7 @@
         <v>13</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="H78" t="s">
@@ -4255,7 +4257,7 @@
         <v>14</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H79" t="s">
@@ -4303,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="H80" t="s">
@@ -4351,7 +4353,7 @@
         <v>18</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="H81" t="s">
@@ -4367,10 +4369,10 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="M81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
         <v>104</v>
@@ -4399,7 +4401,7 @@
         <v>21</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="H82" t="s">
@@ -4447,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="H83" t="s">
@@ -4495,7 +4497,7 @@
         <v>25</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="H84" t="s">
@@ -4543,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="H85" t="s">
@@ -4591,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="H86" t="s">
@@ -4607,10 +4609,10 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="M86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>75</v>
@@ -4639,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="H87" t="s">
@@ -4687,7 +4689,7 @@
         <v>8</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="H88" t="s">
@@ -4735,7 +4737,7 @@
         <v>9</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H89" t="s">
@@ -4751,10 +4753,10 @@
         <v>0.84</v>
       </c>
       <c r="M89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
         <v>108</v>
@@ -4783,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="H90" t="s">
@@ -4831,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="H91" t="s">
@@ -4879,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="H92" t="s">
@@ -4927,7 +4929,7 @@
         <v>17</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="H93" t="s">
@@ -4975,7 +4977,7 @@
         <v>20</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="H94" t="s">
@@ -5023,7 +5025,7 @@
         <v>21</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="H95" t="s">
@@ -5071,7 +5073,7 @@
         <v>24</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="H96" t="s">
@@ -5119,7 +5121,7 @@
         <v>25</v>
       </c>
       <c r="G97">
-        <f t="shared" ref="G97:G128" si="3">(E97-1)*25+F97+1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="H97" t="s">
@@ -5167,7 +5169,7 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="H98" t="s">
@@ -5215,7 +5217,7 @@
         <v>17</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="H99" t="s">
@@ -5263,7 +5265,7 @@
         <v>20</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="H100" t="s">
@@ -5311,7 +5313,7 @@
         <v>21</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="H101" t="s">
@@ -5359,7 +5361,7 @@
         <v>24</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H102" t="s">
@@ -5407,7 +5409,7 @@
         <v>25</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="H103" t="s">
@@ -5455,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="H104" t="s">
@@ -5503,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H105" t="s">
@@ -5519,10 +5521,10 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="M105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <v>116</v>
@@ -5551,7 +5553,7 @@
         <v>7</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="H106" t="s">
@@ -5599,7 +5601,7 @@
         <v>8</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="H107" t="s">
@@ -5647,7 +5649,7 @@
         <v>11</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="H108" t="s">
@@ -5695,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="H109" t="s">
@@ -5711,10 +5713,10 @@
         <v>0.83</v>
       </c>
       <c r="M109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109">
         <v>118</v>
@@ -5743,7 +5745,7 @@
         <v>15</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="H110" t="s">
@@ -5791,7 +5793,7 @@
         <v>16</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="H111" t="s">
@@ -5839,7 +5841,7 @@
         <v>19</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="H112" t="s">
@@ -5887,7 +5889,7 @@
         <v>20</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="H113" t="s">
@@ -5935,7 +5937,7 @@
         <v>23</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="H114" t="s">
@@ -5983,7 +5985,7 @@
         <v>24</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H115" t="s">
@@ -6031,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="H116" t="s">
@@ -6047,10 +6049,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="M116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
         <v>121</v>
@@ -6079,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="H117" t="s">
@@ -6127,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="H118" t="s">
@@ -6175,7 +6177,7 @@
         <v>7</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="H119" t="s">
@@ -6223,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="H120" t="s">
@@ -6239,10 +6241,10 @@
         <v>0.79</v>
       </c>
       <c r="M120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <v>123</v>
@@ -6271,7 +6273,7 @@
         <v>11</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="H121" t="s">
@@ -6287,10 +6289,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="M121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <v>124</v>
@@ -6319,7 +6321,7 @@
         <v>14</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="H122" t="s">
@@ -6367,7 +6369,7 @@
         <v>15</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="H123" t="s">
@@ -6415,7 +6417,7 @@
         <v>18</v>
       </c>
       <c r="G124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="H124" t="s">
@@ -6463,7 +6465,7 @@
         <v>19</v>
       </c>
       <c r="G125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H125" t="s">
@@ -6511,7 +6513,7 @@
         <v>22</v>
       </c>
       <c r="G126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="H126" t="s">
@@ -6559,7 +6561,7 @@
         <v>23</v>
       </c>
       <c r="G127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="H127" t="s">
@@ -6628,9 +6630,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N129">
-    <sortCondition ref="B2:B129"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6638,11 +6637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE9915-ACF9-4417-A532-C14E27F63D35}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6707,6 +6706,6167 @@
       <c r="P1" t="s">
         <v>18</v>
       </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G33" si="0">(E2-1)*25+F2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.06</v>
+      </c>
+      <c r="L2">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.08</v>
+      </c>
+      <c r="L3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="L5">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>76</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>101</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.17</v>
+      </c>
+      <c r="L7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.185</v>
+      </c>
+      <c r="L8">
+        <v>0.81</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>27</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.19</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>52</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <v>77</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.21</v>
+      </c>
+      <c r="L11">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>102</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.23</v>
+      </c>
+      <c r="L13">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>38</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>28</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.245</v>
+      </c>
+      <c r="L14">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>53</v>
+      </c>
+      <c r="R14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.06</v>
+      </c>
+      <c r="L15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>26</v>
+      </c>
+      <c r="Q15">
+        <v>78</v>
+      </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.12</v>
+      </c>
+      <c r="L16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>39</v>
+      </c>
+      <c r="P16">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>103</v>
+      </c>
+      <c r="R16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.16</v>
+      </c>
+      <c r="L18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>33</v>
+      </c>
+      <c r="Q18">
+        <v>29</v>
+      </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>34</v>
+      </c>
+      <c r="Q19">
+        <v>54</v>
+      </c>
+      <c r="R19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="L20">
+        <v>0.82</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>41</v>
+      </c>
+      <c r="P20">
+        <v>37</v>
+      </c>
+      <c r="Q20">
+        <v>79</v>
+      </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.185</v>
+      </c>
+      <c r="L21">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>42</v>
+      </c>
+      <c r="P21">
+        <v>38</v>
+      </c>
+      <c r="Q21">
+        <v>104</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="L22">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>41</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>42</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+      <c r="R23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.22</v>
+      </c>
+      <c r="L24">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>45</v>
+      </c>
+      <c r="Q24">
+        <v>55</v>
+      </c>
+      <c r="R24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>46</v>
+      </c>
+      <c r="Q25">
+        <v>80</v>
+      </c>
+      <c r="R25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.24</v>
+      </c>
+      <c r="L26">
+        <v>896</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>49</v>
+      </c>
+      <c r="Q26">
+        <v>105</v>
+      </c>
+      <c r="R26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.245</v>
+      </c>
+      <c r="L27">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="L28">
+        <v>966</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>45</v>
+      </c>
+      <c r="P28">
+        <v>53</v>
+      </c>
+      <c r="Q28">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.12</v>
+      </c>
+      <c r="L29">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <v>54</v>
+      </c>
+      <c r="Q29">
+        <v>56</v>
+      </c>
+      <c r="R29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.155</v>
+      </c>
+      <c r="L30">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>57</v>
+      </c>
+      <c r="Q30">
+        <v>81</v>
+      </c>
+      <c r="R30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.16</v>
+      </c>
+      <c r="L31">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>58</v>
+      </c>
+      <c r="Q31">
+        <v>106</v>
+      </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>47</v>
+      </c>
+      <c r="P32">
+        <v>61</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.18</v>
+      </c>
+      <c r="L33">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>48</v>
+      </c>
+      <c r="P33">
+        <v>62</v>
+      </c>
+      <c r="Q33">
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G63" si="1">(E34-1)*25+F34</f>
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>57</v>
+      </c>
+      <c r="R34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.12</v>
+      </c>
+      <c r="L35">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>82</v>
+      </c>
+      <c r="R35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.155</v>
+      </c>
+      <c r="L36">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>49</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>107</v>
+      </c>
+      <c r="R36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.16</v>
+      </c>
+      <c r="L37">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>50</v>
+      </c>
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>19</v>
+      </c>
+      <c r="P38">
+        <v>11</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+      <c r="R38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.18</v>
+      </c>
+      <c r="L39">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>20</v>
+      </c>
+      <c r="P39">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>58</v>
+      </c>
+      <c r="R39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>51</v>
+      </c>
+      <c r="P40">
+        <v>15</v>
+      </c>
+      <c r="Q40">
+        <v>83</v>
+      </c>
+      <c r="R40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.2</v>
+      </c>
+      <c r="L41">
+        <v>0.81</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>52</v>
+      </c>
+      <c r="P41">
+        <v>16</v>
+      </c>
+      <c r="Q41">
+        <v>108</v>
+      </c>
+      <c r="R41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.215</v>
+      </c>
+      <c r="L42">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>21</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.22</v>
+      </c>
+      <c r="L43">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>22</v>
+      </c>
+      <c r="P43">
+        <v>20</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+      <c r="R43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>53</v>
+      </c>
+      <c r="P44">
+        <v>23</v>
+      </c>
+      <c r="Q44">
+        <v>59</v>
+      </c>
+      <c r="R44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.24</v>
+      </c>
+      <c r="L45">
+        <v>0.85</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>54</v>
+      </c>
+      <c r="P45">
+        <v>24</v>
+      </c>
+      <c r="Q45">
+        <v>84</v>
+      </c>
+      <c r="R45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.08</v>
+      </c>
+      <c r="L46">
+        <v>0.79</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>23</v>
+      </c>
+      <c r="P46">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>109</v>
+      </c>
+      <c r="R46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="L47">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M47">
+        <v>-1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>24</v>
+      </c>
+      <c r="P47">
+        <v>28</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J48">
+        <v>0.15</v>
+      </c>
+      <c r="L48">
+        <v>0.85</v>
+      </c>
+      <c r="M48">
+        <v>-1</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>55</v>
+      </c>
+      <c r="P48">
+        <v>31</v>
+      </c>
+      <c r="Q48">
+        <v>35</v>
+      </c>
+      <c r="R48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>38</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.155</v>
+      </c>
+      <c r="L49">
+        <v>0.83</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>56</v>
+      </c>
+      <c r="P49">
+        <v>32</v>
+      </c>
+      <c r="Q49">
+        <v>60</v>
+      </c>
+      <c r="R49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.17</v>
+      </c>
+      <c r="L50">
+        <v>1050</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>25</v>
+      </c>
+      <c r="P50">
+        <v>35</v>
+      </c>
+      <c r="Q50">
+        <v>85</v>
+      </c>
+      <c r="R50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="M51">
+        <v>-1</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>26</v>
+      </c>
+      <c r="P51">
+        <v>36</v>
+      </c>
+      <c r="Q51">
+        <v>110</v>
+      </c>
+      <c r="R51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.19</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>57</v>
+      </c>
+      <c r="P52">
+        <v>39</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M53">
+        <v>-1</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>58</v>
+      </c>
+      <c r="P53">
+        <v>40</v>
+      </c>
+      <c r="Q53">
+        <v>36</v>
+      </c>
+      <c r="R53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.21</v>
+      </c>
+      <c r="L54">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M54">
+        <v>-1</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>27</v>
+      </c>
+      <c r="P54">
+        <v>43</v>
+      </c>
+      <c r="Q54">
+        <v>61</v>
+      </c>
+      <c r="R54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.215</v>
+      </c>
+      <c r="L55">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>28</v>
+      </c>
+      <c r="P55">
+        <v>44</v>
+      </c>
+      <c r="Q55">
+        <v>86</v>
+      </c>
+      <c r="R55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.23</v>
+      </c>
+      <c r="L56">
+        <v>0.82</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>59</v>
+      </c>
+      <c r="P56">
+        <v>47</v>
+      </c>
+      <c r="Q56">
+        <v>111</v>
+      </c>
+      <c r="R56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>23</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M57">
+        <v>-1</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>60</v>
+      </c>
+      <c r="P57">
+        <v>48</v>
+      </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
+      <c r="R57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.06</v>
+      </c>
+      <c r="L58">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M58">
+        <v>-1</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>29</v>
+      </c>
+      <c r="P58">
+        <v>51</v>
+      </c>
+      <c r="Q58">
+        <v>37</v>
+      </c>
+      <c r="R58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59">
+        <v>38</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.08</v>
+      </c>
+      <c r="L59">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M59">
+        <v>-1</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>30</v>
+      </c>
+      <c r="P59">
+        <v>52</v>
+      </c>
+      <c r="Q59">
+        <v>62</v>
+      </c>
+      <c r="R59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>61</v>
+      </c>
+      <c r="P60">
+        <v>55</v>
+      </c>
+      <c r="Q60">
+        <v>87</v>
+      </c>
+      <c r="R60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.15</v>
+      </c>
+      <c r="L61">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>62</v>
+      </c>
+      <c r="P61">
+        <v>56</v>
+      </c>
+      <c r="Q61">
+        <v>112</v>
+      </c>
+      <c r="R61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.88</v>
+      </c>
+      <c r="M62">
+        <v>-1</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>31</v>
+      </c>
+      <c r="P62">
+        <v>59</v>
+      </c>
+      <c r="Q62">
+        <v>13</v>
+      </c>
+      <c r="R62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.17</v>
+      </c>
+      <c r="L63">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="M63">
+        <v>-1</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>32</v>
+      </c>
+      <c r="P63">
+        <v>60</v>
+      </c>
+      <c r="Q63">
+        <v>38</v>
+      </c>
+      <c r="R63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="L64">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>63</v>
+      </c>
+      <c r="P64">
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65:G96" si="2">(E65-1)*25+F65+1</f>
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.185</v>
+      </c>
+      <c r="L65">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>64</v>
+      </c>
+      <c r="P65">
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <v>88</v>
+      </c>
+      <c r="R65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.19</v>
+      </c>
+      <c r="L66">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M66">
+        <v>-1</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>65</v>
+      </c>
+      <c r="P66">
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <v>113</v>
+      </c>
+      <c r="R66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>38</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>66</v>
+      </c>
+      <c r="P67">
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <v>14</v>
+      </c>
+      <c r="R67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>18</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.21</v>
+      </c>
+      <c r="L68">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M68">
+        <v>-1</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>97</v>
+      </c>
+      <c r="P68">
+        <v>69</v>
+      </c>
+      <c r="Q68">
+        <v>39</v>
+      </c>
+      <c r="R68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.215</v>
+      </c>
+      <c r="L69">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M69">
+        <v>-1</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>98</v>
+      </c>
+      <c r="P69">
+        <v>70</v>
+      </c>
+      <c r="Q69">
+        <v>64</v>
+      </c>
+      <c r="R69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70">
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.23</v>
+      </c>
+      <c r="L70">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M70">
+        <v>-1</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>67</v>
+      </c>
+      <c r="P70">
+        <v>73</v>
+      </c>
+      <c r="Q70">
+        <v>89</v>
+      </c>
+      <c r="R70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71">
+        <v>38</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>23</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M71">
+        <v>-1</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>68</v>
+      </c>
+      <c r="P71">
+        <v>74</v>
+      </c>
+      <c r="Q71">
+        <v>114</v>
+      </c>
+      <c r="R71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72">
+        <v>38</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.06</v>
+      </c>
+      <c r="L72">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M72">
+        <v>-1</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>99</v>
+      </c>
+      <c r="P72">
+        <v>77</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J73">
+        <v>0.08</v>
+      </c>
+      <c r="L73">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M73">
+        <v>-1</v>
+      </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>100</v>
+      </c>
+      <c r="P73">
+        <v>78</v>
+      </c>
+      <c r="Q73">
+        <v>40</v>
+      </c>
+      <c r="R73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74">
+        <v>38</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.87</v>
+      </c>
+      <c r="M74">
+        <v>-1</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>69</v>
+      </c>
+      <c r="P74">
+        <v>81</v>
+      </c>
+      <c r="Q74">
+        <v>65</v>
+      </c>
+      <c r="R74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.15</v>
+      </c>
+      <c r="L75">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M75">
+        <v>-1</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>70</v>
+      </c>
+      <c r="P75">
+        <v>82</v>
+      </c>
+      <c r="Q75">
+        <v>90</v>
+      </c>
+      <c r="R75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L76">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>101</v>
+      </c>
+      <c r="P76">
+        <v>85</v>
+      </c>
+      <c r="Q76">
+        <v>115</v>
+      </c>
+      <c r="R76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J77">
+        <v>0.17</v>
+      </c>
+      <c r="L77">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M77">
+        <v>-1</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>102</v>
+      </c>
+      <c r="P77">
+        <v>86</v>
+      </c>
+      <c r="Q77">
+        <v>16</v>
+      </c>
+      <c r="R77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.185</v>
+      </c>
+      <c r="L78">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>71</v>
+      </c>
+      <c r="P78">
+        <v>89</v>
+      </c>
+      <c r="Q78">
+        <v>41</v>
+      </c>
+      <c r="R78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J79">
+        <v>0.19</v>
+      </c>
+      <c r="L79">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>72</v>
+      </c>
+      <c r="P79">
+        <v>90</v>
+      </c>
+      <c r="Q79">
+        <v>66</v>
+      </c>
+      <c r="R79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.8</v>
+      </c>
+      <c r="M80">
+        <v>-1</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>103</v>
+      </c>
+      <c r="P80">
+        <v>93</v>
+      </c>
+      <c r="Q80">
+        <v>91</v>
+      </c>
+      <c r="R80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.21</v>
+      </c>
+      <c r="L81">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M81">
+        <v>-1</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>104</v>
+      </c>
+      <c r="P81">
+        <v>94</v>
+      </c>
+      <c r="Q81">
+        <v>116</v>
+      </c>
+      <c r="R81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82">
+        <v>38</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>21</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>73</v>
+      </c>
+      <c r="P82">
+        <v>97</v>
+      </c>
+      <c r="Q82">
+        <v>17</v>
+      </c>
+      <c r="R82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
+        <v>38</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>22</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.23</v>
+      </c>
+      <c r="L83">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>74</v>
+      </c>
+      <c r="P83">
+        <v>98</v>
+      </c>
+      <c r="Q83">
+        <v>42</v>
+      </c>
+      <c r="R83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.245</v>
+      </c>
+      <c r="L84">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M84">
+        <v>-1</v>
+      </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>105</v>
+      </c>
+      <c r="P84">
+        <v>101</v>
+      </c>
+      <c r="Q84">
+        <v>67</v>
+      </c>
+      <c r="R84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85">
+        <v>38</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.06</v>
+      </c>
+      <c r="L85">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M85">
+        <v>-1</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>106</v>
+      </c>
+      <c r="P85">
+        <v>102</v>
+      </c>
+      <c r="Q85">
+        <v>92</v>
+      </c>
+      <c r="R85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86">
+        <v>38</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J86">
+        <v>0.12</v>
+      </c>
+      <c r="L86">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M86">
+        <v>-1</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>75</v>
+      </c>
+      <c r="P86">
+        <v>105</v>
+      </c>
+      <c r="Q86">
+        <v>117</v>
+      </c>
+      <c r="R86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87">
+        <v>38</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J87">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="M87">
+        <v>-1</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>76</v>
+      </c>
+      <c r="P87">
+        <v>106</v>
+      </c>
+      <c r="Q87">
+        <v>18</v>
+      </c>
+      <c r="R87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88">
+        <v>38</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J88">
+        <v>0.16</v>
+      </c>
+      <c r="L88">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M88">
+        <v>-1</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>107</v>
+      </c>
+      <c r="P88">
+        <v>109</v>
+      </c>
+      <c r="Q88">
+        <v>43</v>
+      </c>
+      <c r="R88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J89">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.84</v>
+      </c>
+      <c r="M89">
+        <v>-1</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>108</v>
+      </c>
+      <c r="P89">
+        <v>110</v>
+      </c>
+      <c r="Q89">
+        <v>68</v>
+      </c>
+      <c r="R89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90">
+        <v>38</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J90">
+        <v>0.18</v>
+      </c>
+      <c r="L90">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M90">
+        <v>-1</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>77</v>
+      </c>
+      <c r="P90">
+        <v>113</v>
+      </c>
+      <c r="Q90">
+        <v>93</v>
+      </c>
+      <c r="R90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91">
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J91">
+        <v>0.185</v>
+      </c>
+      <c r="L91">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M91">
+        <v>-1</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>78</v>
+      </c>
+      <c r="P91">
+        <v>114</v>
+      </c>
+      <c r="Q91">
+        <v>118</v>
+      </c>
+      <c r="R91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92">
+        <v>38</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J92">
+        <v>0.2</v>
+      </c>
+      <c r="L92">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>109</v>
+      </c>
+      <c r="P92">
+        <v>117</v>
+      </c>
+      <c r="Q92">
+        <v>19</v>
+      </c>
+      <c r="R92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J93">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L93">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M93">
+        <v>-1</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>110</v>
+      </c>
+      <c r="P93">
+        <v>118</v>
+      </c>
+      <c r="Q93">
+        <v>44</v>
+      </c>
+      <c r="R93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94">
+        <v>38</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J94">
+        <v>0.22</v>
+      </c>
+      <c r="L94">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M94">
+        <v>-1</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>79</v>
+      </c>
+      <c r="P94">
+        <v>121</v>
+      </c>
+      <c r="Q94">
+        <v>69</v>
+      </c>
+      <c r="R94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95">
+        <v>38</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>21</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J95">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>80</v>
+      </c>
+      <c r="P95">
+        <v>122</v>
+      </c>
+      <c r="Q95">
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96">
+        <v>38</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>24</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J96">
+        <v>0.24</v>
+      </c>
+      <c r="L96">
+        <v>0.84</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>111</v>
+      </c>
+      <c r="P96">
+        <v>125</v>
+      </c>
+      <c r="Q96">
+        <v>119</v>
+      </c>
+      <c r="R96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>25</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97:G127" si="3">(E97-1)*25+F97+1</f>
+        <v>126</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J97">
+        <v>0.245</v>
+      </c>
+      <c r="L97">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M97">
+        <v>-1</v>
+      </c>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>112</v>
+      </c>
+      <c r="P97">
+        <v>126</v>
+      </c>
+      <c r="Q97">
+        <v>20</v>
+      </c>
+      <c r="R97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98">
+        <v>38</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.2</v>
+      </c>
+      <c r="L98">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>81</v>
+      </c>
+      <c r="P98">
+        <v>67</v>
+      </c>
+      <c r="Q98">
+        <v>45</v>
+      </c>
+      <c r="R98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99">
+        <v>38</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L99">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>82</v>
+      </c>
+      <c r="P99">
+        <v>68</v>
+      </c>
+      <c r="Q99">
+        <v>70</v>
+      </c>
+      <c r="R99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100">
+        <v>38</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.22</v>
+      </c>
+      <c r="L100">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M100">
+        <v>-1</v>
+      </c>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>113</v>
+      </c>
+      <c r="P100">
+        <v>71</v>
+      </c>
+      <c r="Q100">
+        <v>95</v>
+      </c>
+      <c r="R100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
+        <v>38</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M101">
+        <v>-1</v>
+      </c>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>114</v>
+      </c>
+      <c r="P101">
+        <v>72</v>
+      </c>
+      <c r="Q101">
+        <v>120</v>
+      </c>
+      <c r="R101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>38</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0.24</v>
+      </c>
+      <c r="L102">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>83</v>
+      </c>
+      <c r="P102">
+        <v>75</v>
+      </c>
+      <c r="Q102">
+        <v>21</v>
+      </c>
+      <c r="R102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103">
+        <v>38</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>25</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0.245</v>
+      </c>
+      <c r="L103">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M103">
+        <v>-1</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>84</v>
+      </c>
+      <c r="P103">
+        <v>76</v>
+      </c>
+      <c r="Q103">
+        <v>46</v>
+      </c>
+      <c r="R103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J104">
+        <v>0.1</v>
+      </c>
+      <c r="L104">
+        <v>1080</v>
+      </c>
+      <c r="M104">
+        <v>-1</v>
+      </c>
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>115</v>
+      </c>
+      <c r="P104">
+        <v>79</v>
+      </c>
+      <c r="Q104">
+        <v>71</v>
+      </c>
+      <c r="R104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105">
+        <v>38</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.12</v>
+      </c>
+      <c r="L105">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M105">
+        <v>-1</v>
+      </c>
+      <c r="N105" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>116</v>
+      </c>
+      <c r="P105">
+        <v>80</v>
+      </c>
+      <c r="Q105">
+        <v>96</v>
+      </c>
+      <c r="R105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106">
+        <v>38</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J106">
+        <v>0.155</v>
+      </c>
+      <c r="L106">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>85</v>
+      </c>
+      <c r="P106">
+        <v>83</v>
+      </c>
+      <c r="Q106">
+        <v>121</v>
+      </c>
+      <c r="R106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107">
+        <v>38</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.16</v>
+      </c>
+      <c r="L107">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>86</v>
+      </c>
+      <c r="P107">
+        <v>84</v>
+      </c>
+      <c r="Q107">
+        <v>22</v>
+      </c>
+      <c r="R107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108">
+        <v>38</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J108">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L108">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M108">
+        <v>-1</v>
+      </c>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>117</v>
+      </c>
+      <c r="P108">
+        <v>87</v>
+      </c>
+      <c r="Q108">
+        <v>47</v>
+      </c>
+      <c r="R108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109">
+        <v>38</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J109">
+        <v>0.18</v>
+      </c>
+      <c r="L109">
+        <v>0.83</v>
+      </c>
+      <c r="M109">
+        <v>-1</v>
+      </c>
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>118</v>
+      </c>
+      <c r="P109">
+        <v>88</v>
+      </c>
+      <c r="Q109">
+        <v>72</v>
+      </c>
+      <c r="R109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110">
+        <v>38</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>15</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J110">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L110">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>87</v>
+      </c>
+      <c r="P110">
+        <v>91</v>
+      </c>
+      <c r="Q110">
+        <v>97</v>
+      </c>
+      <c r="R110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111">
+        <v>38</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J111">
+        <v>0.2</v>
+      </c>
+      <c r="L111">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>88</v>
+      </c>
+      <c r="P111">
+        <v>92</v>
+      </c>
+      <c r="Q111">
+        <v>122</v>
+      </c>
+      <c r="R111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112">
+        <v>38</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J112">
+        <v>0.215</v>
+      </c>
+      <c r="L112">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M112">
+        <v>-1</v>
+      </c>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>119</v>
+      </c>
+      <c r="P112">
+        <v>95</v>
+      </c>
+      <c r="Q112">
+        <v>23</v>
+      </c>
+      <c r="R112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113">
+        <v>38</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H113" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J113">
+        <v>0.22</v>
+      </c>
+      <c r="L113">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M113">
+        <v>-1</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>120</v>
+      </c>
+      <c r="P113">
+        <v>96</v>
+      </c>
+      <c r="Q113">
+        <v>48</v>
+      </c>
+      <c r="R113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J114">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L114">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="M114">
+        <v>-1</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>89</v>
+      </c>
+      <c r="P114">
+        <v>99</v>
+      </c>
+      <c r="Q114">
+        <v>73</v>
+      </c>
+      <c r="R114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.24</v>
+      </c>
+      <c r="L115">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M115">
+        <v>-1</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>90</v>
+      </c>
+      <c r="P115">
+        <v>100</v>
+      </c>
+      <c r="Q115">
+        <v>98</v>
+      </c>
+      <c r="R115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116">
+        <v>38</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J116">
+        <v>0.08</v>
+      </c>
+      <c r="L116">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M116">
+        <v>-1</v>
+      </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>121</v>
+      </c>
+      <c r="P116">
+        <v>103</v>
+      </c>
+      <c r="Q116">
+        <v>123</v>
+      </c>
+      <c r="R116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.1</v>
+      </c>
+      <c r="L117">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M117">
+        <v>-1</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>122</v>
+      </c>
+      <c r="P117">
+        <v>104</v>
+      </c>
+      <c r="Q117">
+        <v>24</v>
+      </c>
+      <c r="R117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118">
+        <v>38</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.15</v>
+      </c>
+      <c r="L118">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="M118">
+        <v>-1</v>
+      </c>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>91</v>
+      </c>
+      <c r="P118">
+        <v>107</v>
+      </c>
+      <c r="Q118">
+        <v>49</v>
+      </c>
+      <c r="R118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119">
+        <v>38</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J119">
+        <v>0.155</v>
+      </c>
+      <c r="L119">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>92</v>
+      </c>
+      <c r="P119">
+        <v>108</v>
+      </c>
+      <c r="Q119">
+        <v>74</v>
+      </c>
+      <c r="R119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120">
+        <v>38</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J120">
+        <v>0.17</v>
+      </c>
+      <c r="L120">
+        <v>0.79</v>
+      </c>
+      <c r="M120">
+        <v>-1</v>
+      </c>
+      <c r="N120" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>123</v>
+      </c>
+      <c r="P120">
+        <v>111</v>
+      </c>
+      <c r="Q120">
+        <v>99</v>
+      </c>
+      <c r="R120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121">
+        <v>38</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J121">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L121">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M121">
+        <v>-1</v>
+      </c>
+      <c r="N121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>124</v>
+      </c>
+      <c r="P121">
+        <v>112</v>
+      </c>
+      <c r="Q121">
+        <v>124</v>
+      </c>
+      <c r="R121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122">
+        <v>38</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.19</v>
+      </c>
+      <c r="L122">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M122">
+        <v>-1</v>
+      </c>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>93</v>
+      </c>
+      <c r="P122">
+        <v>115</v>
+      </c>
+      <c r="Q122">
+        <v>25</v>
+      </c>
+      <c r="R122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123">
+        <v>38</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>15</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L123">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>94</v>
+      </c>
+      <c r="P123">
+        <v>116</v>
+      </c>
+      <c r="Q123">
+        <v>50</v>
+      </c>
+      <c r="R123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124">
+        <v>38</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>18</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="H124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J124">
+        <v>0.21</v>
+      </c>
+      <c r="L124">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M124">
+        <v>-1</v>
+      </c>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>125</v>
+      </c>
+      <c r="P124">
+        <v>119</v>
+      </c>
+      <c r="Q124">
+        <v>75</v>
+      </c>
+      <c r="R124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125">
+        <v>38</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>19</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="H125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J125">
+        <v>0.215</v>
+      </c>
+      <c r="L125">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>126</v>
+      </c>
+      <c r="P125">
+        <v>120</v>
+      </c>
+      <c r="Q125">
+        <v>100</v>
+      </c>
+      <c r="R125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126">
+        <v>38</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>22</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+      <c r="I126">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J126">
+        <v>0.23</v>
+      </c>
+      <c r="L126">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M126">
+        <v>-1</v>
+      </c>
+      <c r="N126" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>95</v>
+      </c>
+      <c r="P126">
+        <v>123</v>
+      </c>
+      <c r="Q126">
+        <v>125</v>
+      </c>
+      <c r="R126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127">
+        <v>38</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>23</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="H127" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J127">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L127">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="M127">
+        <v>-1</v>
+      </c>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>96</v>
+      </c>
+      <c r="P127">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128">
+        <v>38</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="L128">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="N128" t="b">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>127</v>
+      </c>
+      <c r="P128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129">
+        <v>38</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="L129">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N129" t="b">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>128</v>
+      </c>
+      <c r="P129">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N129">
+    <sortCondition ref="B2:B129"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X129"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
@@ -11650,4 +17810,406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE345ED-17D5-49FF-AFF7-BB40D48FA6F7}">
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>42</v>
+      </c>
+      <c r="R2">
+        <v>43</v>
+      </c>
+      <c r="S2">
+        <v>44</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2">
+        <v>46</v>
+      </c>
+      <c r="V2">
+        <v>47</v>
+      </c>
+      <c r="W2">
+        <v>48</v>
+      </c>
+      <c r="X2">
+        <v>49</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>59</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
+      </c>
+      <c r="L3">
+        <v>62</v>
+      </c>
+      <c r="M3">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>65</v>
+      </c>
+      <c r="O3">
+        <v>66</v>
+      </c>
+      <c r="P3">
+        <v>67</v>
+      </c>
+      <c r="Q3">
+        <v>68</v>
+      </c>
+      <c r="R3">
+        <v>69</v>
+      </c>
+      <c r="S3">
+        <v>70</v>
+      </c>
+      <c r="T3">
+        <v>71</v>
+      </c>
+      <c r="U3">
+        <v>72</v>
+      </c>
+      <c r="V3">
+        <v>73</v>
+      </c>
+      <c r="W3">
+        <v>74</v>
+      </c>
+      <c r="X3">
+        <v>75</v>
+      </c>
+      <c r="Y3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>84</v>
+      </c>
+      <c r="I4">
+        <v>85</v>
+      </c>
+      <c r="J4">
+        <v>86</v>
+      </c>
+      <c r="K4">
+        <v>87</v>
+      </c>
+      <c r="L4">
+        <v>88</v>
+      </c>
+      <c r="M4">
+        <v>89</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>91</v>
+      </c>
+      <c r="P4">
+        <v>92</v>
+      </c>
+      <c r="Q4">
+        <v>93</v>
+      </c>
+      <c r="R4">
+        <v>94</v>
+      </c>
+      <c r="S4">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>96</v>
+      </c>
+      <c r="U4">
+        <v>97</v>
+      </c>
+      <c r="V4">
+        <v>98</v>
+      </c>
+      <c r="W4">
+        <v>99</v>
+      </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <v>110</v>
+      </c>
+      <c r="J5">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>113</v>
+      </c>
+      <c r="M5">
+        <v>114</v>
+      </c>
+      <c r="N5">
+        <v>115</v>
+      </c>
+      <c r="O5">
+        <v>116</v>
+      </c>
+      <c r="P5">
+        <v>117</v>
+      </c>
+      <c r="Q5">
+        <v>118</v>
+      </c>
+      <c r="R5">
+        <v>119</v>
+      </c>
+      <c r="S5">
+        <v>120</v>
+      </c>
+      <c r="T5">
+        <v>121</v>
+      </c>
+      <c r="U5">
+        <v>122</v>
+      </c>
+      <c r="V5">
+        <v>123</v>
+      </c>
+      <c r="W5">
+        <v>124</v>
+      </c>
+      <c r="X5">
+        <v>125</v>
+      </c>
+      <c r="Y5">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pcb_experiment/coeff125ch.xlsx
+++ b/pcb_experiment/coeff125ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/labo/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="852" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950AB0D1-A32D-4AD4-A6CE-78A3701F7077}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93BC9AA-9E52-4E05-97BA-F6CDB166EFEC}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="940" windowWidth="10060" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230103" sheetId="3" r:id="rId1"/>
@@ -211,10 +211,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C83F073-7BC0-44D0-A47E-A319DD90CC77}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2714,7 +2710,7 @@
         <v>-1</v>
       </c>
       <c r="N46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>23</v>
@@ -3287,10 +3283,10 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="M58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>29</v>
@@ -3748,7 +3744,7 @@
         <v>-1</v>
       </c>
       <c r="N68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>97</v>

--- a/pcb_experiment/coeff125ch.xlsx
+++ b/pcb_experiment/coeff125ch.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geccutokyoacjp-my.sharepoint.com/personal/kurumi-doi_g_ecc_u-tokyo_ac_jp/Documents/labo/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03269292-4CA8-43C6-B4B1-E69AA19AEC03}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="11_AD4D066CA252ABDACC1048862115CAFA73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93BC9AA-9E52-4E05-97BA-F6CDB166EFEC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="221219 " sheetId="2" r:id="rId1"/>
-    <sheet name="0" sheetId="1" r:id="rId2"/>
+    <sheet name="230103" sheetId="3" r:id="rId1"/>
+    <sheet name="221219 " sheetId="2" r:id="rId2"/>
+    <sheet name="0" sheetId="1" r:id="rId3"/>
+    <sheet name="p_ch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="22">
   <si>
     <t>dtacq_num</t>
     <phoneticPr fontId="1"/>
@@ -209,10 +211,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,11 +475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE9915-ACF9-4417-A532-C14E27F63D35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C83F073-7BC0-44D0-A47E-A319DD90CC77}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -579,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">(E2-1)*25+F2</f>
+        <f t="shared" ref="G2:G63" si="0">(E2-1)*25+F2</f>
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -789,10 +787,10 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -837,10 +835,10 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -1989,10 +1987,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>16</v>
@@ -2117,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="1">(E34-1)*25+F34</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H34" t="s">
@@ -2165,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H35" t="s">
@@ -2213,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H36" t="s">
@@ -2261,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H37" t="s">
@@ -2309,7 +2307,7 @@
         <v>11</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H38" t="s">
@@ -2357,7 +2355,7 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H39" t="s">
@@ -2405,7 +2403,7 @@
         <v>15</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H40" t="s">
@@ -2453,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H41" t="s">
@@ -2501,7 +2499,7 @@
         <v>19</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H42" t="s">
@@ -2549,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H43" t="s">
@@ -2597,7 +2595,7 @@
         <v>23</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="H44" t="s">
@@ -2645,7 +2643,7 @@
         <v>24</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H45" t="s">
@@ -2693,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="H46" t="s">
@@ -2709,7 +2707,7 @@
         <v>0.79</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -2741,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="H47" t="s">
@@ -2789,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="H48" t="s">
@@ -2837,7 +2835,7 @@
         <v>7</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H49" t="s">
@@ -2885,7 +2883,7 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="H50" t="s">
@@ -2933,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H51" t="s">
@@ -2949,10 +2947,10 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="M51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>26</v>
@@ -2981,7 +2979,7 @@
         <v>14</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="H52" t="s">
@@ -3029,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H53" t="s">
@@ -3077,7 +3075,7 @@
         <v>18</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="H54" t="s">
@@ -3125,7 +3123,7 @@
         <v>19</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H55" t="s">
@@ -3173,7 +3171,7 @@
         <v>22</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="H56" t="s">
@@ -3221,7 +3219,7 @@
         <v>23</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="H57" t="s">
@@ -3269,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="H58" t="s">
@@ -3285,10 +3283,10 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="M58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>29</v>
@@ -3317,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="H59" t="s">
@@ -3365,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="H60" t="s">
@@ -3413,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="H61" t="s">
@@ -3461,7 +3459,7 @@
         <v>9</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="H62" t="s">
@@ -3477,10 +3475,10 @@
         <v>0.88</v>
       </c>
       <c r="M62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>31</v>
@@ -3509,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H63" t="s">
@@ -3583,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:G96" si="2">(E65-1)*25+F65+1</f>
+        <f t="shared" ref="G65:G127" si="1">(E65-1)*25+F65+1</f>
         <v>64</v>
       </c>
       <c r="H65" t="s">
@@ -3631,7 +3629,7 @@
         <v>14</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="H66" t="s">
@@ -3647,10 +3645,10 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="M66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>65</v>
@@ -3679,7 +3677,7 @@
         <v>15</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="H67" t="s">
@@ -3727,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="H68" t="s">
@@ -3746,7 +3744,7 @@
         <v>-1</v>
       </c>
       <c r="N68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>97</v>
@@ -3775,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H69" t="s">
@@ -3823,7 +3821,7 @@
         <v>22</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="H70" t="s">
@@ -3871,7 +3869,7 @@
         <v>23</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="H71" t="s">
@@ -3919,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="H72" t="s">
@@ -3967,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H73" t="s">
@@ -4015,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="H74" t="s">
@@ -4063,7 +4061,7 @@
         <v>6</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="H75" t="s">
@@ -4111,7 +4109,7 @@
         <v>9</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="H76" t="s">
@@ -4127,10 +4125,10 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="M76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>101</v>
@@ -4159,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="H77" t="s">
@@ -4207,7 +4205,7 @@
         <v>13</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="H78" t="s">
@@ -4255,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H79" t="s">
@@ -4303,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="H80" t="s">
@@ -4351,7 +4349,7 @@
         <v>18</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="H81" t="s">
@@ -4367,10 +4365,10 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="M81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
         <v>104</v>
@@ -4399,7 +4397,7 @@
         <v>21</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="H82" t="s">
@@ -4447,7 +4445,7 @@
         <v>22</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="H83" t="s">
@@ -4495,7 +4493,7 @@
         <v>25</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="H84" t="s">
@@ -4543,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="H85" t="s">
@@ -4591,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="H86" t="s">
@@ -4607,10 +4605,10 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="M86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>75</v>
@@ -4639,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="H87" t="s">
@@ -4687,7 +4685,7 @@
         <v>8</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="H88" t="s">
@@ -4735,7 +4733,7 @@
         <v>9</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="H89" t="s">
@@ -4751,10 +4749,10 @@
         <v>0.84</v>
       </c>
       <c r="M89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
         <v>108</v>
@@ -4783,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="H90" t="s">
@@ -4831,7 +4829,7 @@
         <v>13</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="H91" t="s">
@@ -4879,7 +4877,7 @@
         <v>16</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="H92" t="s">
@@ -4927,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="H93" t="s">
@@ -4975,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="H94" t="s">
@@ -5023,7 +5021,7 @@
         <v>21</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="H95" t="s">
@@ -5071,7 +5069,7 @@
         <v>24</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="H96" t="s">
@@ -5119,7 +5117,7 @@
         <v>25</v>
       </c>
       <c r="G97">
-        <f t="shared" ref="G97:G128" si="3">(E97-1)*25+F97+1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="H97" t="s">
@@ -5167,7 +5165,7 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="H98" t="s">
@@ -5215,7 +5213,7 @@
         <v>17</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="H99" t="s">
@@ -5263,7 +5261,7 @@
         <v>20</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="H100" t="s">
@@ -5311,7 +5309,7 @@
         <v>21</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="H101" t="s">
@@ -5359,7 +5357,7 @@
         <v>24</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="H102" t="s">
@@ -5407,7 +5405,7 @@
         <v>25</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="H103" t="s">
@@ -5455,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="H104" t="s">
@@ -5503,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H105" t="s">
@@ -5519,10 +5517,10 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="M105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105">
         <v>116</v>
@@ -5551,7 +5549,7 @@
         <v>7</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="H106" t="s">
@@ -5599,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="H107" t="s">
@@ -5647,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="H108" t="s">
@@ -5695,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="H109" t="s">
@@ -5711,10 +5709,10 @@
         <v>0.83</v>
       </c>
       <c r="M109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109">
         <v>118</v>
@@ -5743,7 +5741,7 @@
         <v>15</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="H110" t="s">
@@ -5791,7 +5789,7 @@
         <v>16</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="H111" t="s">
@@ -5839,7 +5837,7 @@
         <v>19</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="H112" t="s">
@@ -5887,7 +5885,7 @@
         <v>20</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="H113" t="s">
@@ -5935,7 +5933,7 @@
         <v>23</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="H114" t="s">
@@ -5983,7 +5981,7 @@
         <v>24</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H115" t="s">
@@ -6031,7 +6029,7 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="H116" t="s">
@@ -6047,10 +6045,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="M116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
         <v>121</v>
@@ -6079,7 +6077,7 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="H117" t="s">
@@ -6127,7 +6125,7 @@
         <v>6</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="H118" t="s">
@@ -6175,7 +6173,7 @@
         <v>7</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="H119" t="s">
@@ -6223,7 +6221,7 @@
         <v>10</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="H120" t="s">
@@ -6239,10 +6237,10 @@
         <v>0.79</v>
       </c>
       <c r="M120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <v>123</v>
@@ -6271,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="H121" t="s">
@@ -6287,10 +6285,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="M121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <v>124</v>
@@ -6319,7 +6317,7 @@
         <v>14</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="H122" t="s">
@@ -6367,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="H123" t="s">
@@ -6415,7 +6413,7 @@
         <v>18</v>
       </c>
       <c r="G124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="H124" t="s">
@@ -6463,7 +6461,7 @@
         <v>19</v>
       </c>
       <c r="G125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="H125" t="s">
@@ -6511,7 +6509,7 @@
         <v>22</v>
       </c>
       <c r="G126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="H126" t="s">
@@ -6559,7 +6557,7 @@
         <v>23</v>
       </c>
       <c r="G127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="H127" t="s">
@@ -6628,9 +6626,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N129">
-    <sortCondition ref="B2:B129"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6638,11 +6633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CE9915-ACF9-4417-A532-C14E27F63D35}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6707,6 +6702,6167 @@
       <c r="P1" t="s">
         <v>18</v>
       </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G33" si="0">(E2-1)*25+F2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.06</v>
+      </c>
+      <c r="L2">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.08</v>
+      </c>
+      <c r="L3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="L5">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>76</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>101</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.17</v>
+      </c>
+      <c r="L7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.185</v>
+      </c>
+      <c r="L8">
+        <v>0.81</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>27</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.19</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>52</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <v>77</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.21</v>
+      </c>
+      <c r="L11">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>102</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.23</v>
+      </c>
+      <c r="L13">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>38</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>28</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.245</v>
+      </c>
+      <c r="L14">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>53</v>
+      </c>
+      <c r="R14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.06</v>
+      </c>
+      <c r="L15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>26</v>
+      </c>
+      <c r="Q15">
+        <v>78</v>
+      </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.12</v>
+      </c>
+      <c r="L16">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>39</v>
+      </c>
+      <c r="P16">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>103</v>
+      </c>
+      <c r="R16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.16</v>
+      </c>
+      <c r="L18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>33</v>
+      </c>
+      <c r="Q18">
+        <v>29</v>
+      </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>34</v>
+      </c>
+      <c r="Q19">
+        <v>54</v>
+      </c>
+      <c r="R19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.18</v>
+      </c>
+      <c r="L20">
+        <v>0.82</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>41</v>
+      </c>
+      <c r="P20">
+        <v>37</v>
+      </c>
+      <c r="Q20">
+        <v>79</v>
+      </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.185</v>
+      </c>
+      <c r="L21">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>42</v>
+      </c>
+      <c r="P21">
+        <v>38</v>
+      </c>
+      <c r="Q21">
+        <v>104</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="L22">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>41</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>42</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+      <c r="R23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.22</v>
+      </c>
+      <c r="L24">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>45</v>
+      </c>
+      <c r="Q24">
+        <v>55</v>
+      </c>
+      <c r="R24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>46</v>
+      </c>
+      <c r="Q25">
+        <v>80</v>
+      </c>
+      <c r="R25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.24</v>
+      </c>
+      <c r="L26">
+        <v>896</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>49</v>
+      </c>
+      <c r="Q26">
+        <v>105</v>
+      </c>
+      <c r="R26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.245</v>
+      </c>
+      <c r="L27">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="L28">
+        <v>966</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>45</v>
+      </c>
+      <c r="P28">
+        <v>53</v>
+      </c>
+      <c r="Q28">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.12</v>
+      </c>
+      <c r="L29">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <v>54</v>
+      </c>
+      <c r="Q29">
+        <v>56</v>
+      </c>
+      <c r="R29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.155</v>
+      </c>
+      <c r="L30">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M30">
+        <v>-1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>57</v>
+      </c>
+      <c r="Q30">
+        <v>81</v>
+      </c>
+      <c r="R30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.16</v>
+      </c>
+      <c r="L31">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>58</v>
+      </c>
+      <c r="Q31">
+        <v>106</v>
+      </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>47</v>
+      </c>
+      <c r="P32">
+        <v>61</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.18</v>
+      </c>
+      <c r="L33">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>48</v>
+      </c>
+      <c r="P33">
+        <v>62</v>
+      </c>
+      <c r="Q33">
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G63" si="1">(E34-1)*25+F34</f>
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>57</v>
+      </c>
+      <c r="R34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.12</v>
+      </c>
+      <c r="L35">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>82</v>
+      </c>
+      <c r="R35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.155</v>
+      </c>
+      <c r="L36">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>49</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>107</v>
+      </c>
+      <c r="R36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.16</v>
+      </c>
+      <c r="L37">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>50</v>
+      </c>
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>19</v>
+      </c>
+      <c r="P38">
+        <v>11</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+      <c r="R38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.18</v>
+      </c>
+      <c r="L39">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>20</v>
+      </c>
+      <c r="P39">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>58</v>
+      </c>
+      <c r="R39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>51</v>
+      </c>
+      <c r="P40">
+        <v>15</v>
+      </c>
+      <c r="Q40">
+        <v>83</v>
+      </c>
+      <c r="R40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.2</v>
+      </c>
+      <c r="L41">
+        <v>0.81</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>52</v>
+      </c>
+      <c r="P41">
+        <v>16</v>
+      </c>
+      <c r="Q41">
+        <v>108</v>
+      </c>
+      <c r="R41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.215</v>
+      </c>
+      <c r="L42">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>21</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.22</v>
+      </c>
+      <c r="L43">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>22</v>
+      </c>
+      <c r="P43">
+        <v>20</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+      <c r="R43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>53</v>
+      </c>
+      <c r="P44">
+        <v>23</v>
+      </c>
+      <c r="Q44">
+        <v>59</v>
+      </c>
+      <c r="R44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.24</v>
+      </c>
+      <c r="L45">
+        <v>0.85</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>54</v>
+      </c>
+      <c r="P45">
+        <v>24</v>
+      </c>
+      <c r="Q45">
+        <v>84</v>
+      </c>
+      <c r="R45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.08</v>
+      </c>
+      <c r="L46">
+        <v>0.79</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>23</v>
+      </c>
+      <c r="P46">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>109</v>
+      </c>
+      <c r="R46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="L47">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M47">
+        <v>-1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>24</v>
+      </c>
+      <c r="P47">
+        <v>28</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J48">
+        <v>0.15</v>
+      </c>
+      <c r="L48">
+        <v>0.85</v>
+      </c>
+      <c r="M48">
+        <v>-1</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>55</v>
+      </c>
+      <c r="P48">
+        <v>31</v>
+      </c>
+      <c r="Q48">
+        <v>35</v>
+      </c>
+      <c r="R48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>38</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.155</v>
+      </c>
+      <c r="L49">
+        <v>0.83</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>56</v>
+      </c>
+      <c r="P49">
+        <v>32</v>
+      </c>
+      <c r="Q49">
+        <v>60</v>
+      </c>
+      <c r="R49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.17</v>
+      </c>
+      <c r="L50">
+        <v>1050</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>25</v>
+      </c>
+      <c r="P50">
+        <v>35</v>
+      </c>
+      <c r="Q50">
+        <v>85</v>
+      </c>
+      <c r="R50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="M51">
+        <v>-1</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>26</v>
+      </c>
+      <c r="P51">
+        <v>36</v>
+      </c>
+      <c r="Q51">
+        <v>110</v>
+      </c>
+      <c r="R51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.19</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>57</v>
+      </c>
+      <c r="P52">
+        <v>39</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M53">
+        <v>-1</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>58</v>
+      </c>
+      <c r="P53">
+        <v>40</v>
+      </c>
+      <c r="Q53">
+        <v>36</v>
+      </c>
+      <c r="R53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.21</v>
+      </c>
+      <c r="L54">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M54">
+        <v>-1</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>27</v>
+      </c>
+      <c r="P54">
+        <v>43</v>
+      </c>
+      <c r="Q54">
+        <v>61</v>
+      </c>
+      <c r="R54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.215</v>
+      </c>
+      <c r="L55">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>28</v>
+      </c>
+      <c r="P55">
+        <v>44</v>
+      </c>
+      <c r="Q55">
+        <v>86</v>
+      </c>
+      <c r="R55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.23</v>
+      </c>
+      <c r="L56">
+        <v>0.82</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>59</v>
+      </c>
+      <c r="P56">
+        <v>47</v>
+      </c>
+      <c r="Q56">
+        <v>111</v>
+      </c>
+      <c r="R56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>23</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M57">
+        <v>-1</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>60</v>
+      </c>
+      <c r="P57">
+        <v>48</v>
+      </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
+      <c r="R57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.06</v>
+      </c>
+      <c r="L58">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M58">
+        <v>-1</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>29</v>
+      </c>
+      <c r="P58">
+        <v>51</v>
+      </c>
+      <c r="Q58">
+        <v>37</v>
+      </c>
+      <c r="R58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59">
+        <v>38</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.08</v>
+      </c>
+      <c r="L59">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M59">
+        <v>-1</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>30</v>
+      </c>
+      <c r="P59">
+        <v>52</v>
+      </c>
+      <c r="Q59">
+        <v>62</v>
+      </c>
+      <c r="R59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>61</v>
+      </c>
+      <c r="P60">
+        <v>55</v>
+      </c>
+      <c r="Q60">
+        <v>87</v>
+      </c>
+      <c r="R60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.15</v>
+      </c>
+      <c r="L61">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>62</v>
+      </c>
+      <c r="P61">
+        <v>56</v>
+      </c>
+      <c r="Q61">
+        <v>112</v>
+      </c>
+      <c r="R61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.88</v>
+      </c>
+      <c r="M62">
+        <v>-1</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>31</v>
+      </c>
+      <c r="P62">
+        <v>59</v>
+      </c>
+      <c r="Q62">
+        <v>13</v>
+      </c>
+      <c r="R62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.17</v>
+      </c>
+      <c r="L63">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="M63">
+        <v>-1</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>32</v>
+      </c>
+      <c r="P63">
+        <v>60</v>
+      </c>
+      <c r="Q63">
+        <v>38</v>
+      </c>
+      <c r="R63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="L64">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>63</v>
+      </c>
+      <c r="P64">
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65:G96" si="2">(E65-1)*25+F65+1</f>
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.185</v>
+      </c>
+      <c r="L65">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>64</v>
+      </c>
+      <c r="P65">
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <v>88</v>
+      </c>
+      <c r="R65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.19</v>
+      </c>
+      <c r="L66">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M66">
+        <v>-1</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>65</v>
+      </c>
+      <c r="P66">
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <v>113</v>
+      </c>
+      <c r="R66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>38</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>66</v>
+      </c>
+      <c r="P67">
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <v>14</v>
+      </c>
+      <c r="R67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>18</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.21</v>
+      </c>
+      <c r="L68">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M68">
+        <v>-1</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>97</v>
+      </c>
+      <c r="P68">
+        <v>69</v>
+      </c>
+      <c r="Q68">
+        <v>39</v>
+      </c>
+      <c r="R68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.215</v>
+      </c>
+      <c r="L69">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M69">
+        <v>-1</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>98</v>
+      </c>
+      <c r="P69">
+        <v>70</v>
+      </c>
+      <c r="Q69">
+        <v>64</v>
+      </c>
+      <c r="R69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70">
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.23</v>
+      </c>
+      <c r="L70">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M70">
+        <v>-1</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>67</v>
+      </c>
+      <c r="P70">
+        <v>73</v>
+      </c>
+      <c r="Q70">
+        <v>89</v>
+      </c>
+      <c r="R70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71">
+        <v>38</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>23</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M71">
+        <v>-1</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>68</v>
+      </c>
+      <c r="P71">
+        <v>74</v>
+      </c>
+      <c r="Q71">
+        <v>114</v>
+      </c>
+      <c r="R71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72">
+        <v>38</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.06</v>
+      </c>
+      <c r="L72">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M72">
+        <v>-1</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>99</v>
+      </c>
+      <c r="P72">
+        <v>77</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J73">
+        <v>0.08</v>
+      </c>
+      <c r="L73">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M73">
+        <v>-1</v>
+      </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>100</v>
+      </c>
+      <c r="P73">
+        <v>78</v>
+      </c>
+      <c r="Q73">
+        <v>40</v>
+      </c>
+      <c r="R73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74">
+        <v>38</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.87</v>
+      </c>
+      <c r="M74">
+        <v>-1</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>69</v>
+      </c>
+      <c r="P74">
+        <v>81</v>
+      </c>
+      <c r="Q74">
+        <v>65</v>
+      </c>
+      <c r="R74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.15</v>
+      </c>
+      <c r="L75">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M75">
+        <v>-1</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>70</v>
+      </c>
+      <c r="P75">
+        <v>82</v>
+      </c>
+      <c r="Q75">
+        <v>90</v>
+      </c>
+      <c r="R75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L76">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>101</v>
+      </c>
+      <c r="P76">
+        <v>85</v>
+      </c>
+      <c r="Q76">
+        <v>115</v>
+      </c>
+      <c r="R76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J77">
+        <v>0.17</v>
+      </c>
+      <c r="L77">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M77">
+        <v>-1</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>102</v>
+      </c>
+      <c r="P77">
+        <v>86</v>
+      </c>
+      <c r="Q77">
+        <v>16</v>
+      </c>
+      <c r="R77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.185</v>
+      </c>
+      <c r="L78">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>71</v>
+      </c>
+      <c r="P78">
+        <v>89</v>
+      </c>
+      <c r="Q78">
+        <v>41</v>
+      </c>
+      <c r="R78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J79">
+        <v>0.19</v>
+      </c>
+      <c r="L79">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>72</v>
+      </c>
+      <c r="P79">
+        <v>90</v>
+      </c>
+      <c r="Q79">
+        <v>66</v>
+      </c>
+      <c r="R79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.8</v>
+      </c>
+      <c r="M80">
+        <v>-1</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>103</v>
+      </c>
+      <c r="P80">
+        <v>93</v>
+      </c>
+      <c r="Q80">
+        <v>91</v>
+      </c>
+      <c r="R80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.21</v>
+      </c>
+      <c r="L81">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M81">
+        <v>-1</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>104</v>
+      </c>
+      <c r="P81">
+        <v>94</v>
+      </c>
+      <c r="Q81">
+        <v>116</v>
+      </c>
+      <c r="R81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82">
+        <v>38</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>21</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>73</v>
+      </c>
+      <c r="P82">
+        <v>97</v>
+      </c>
+      <c r="Q82">
+        <v>17</v>
+      </c>
+      <c r="R82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
+        <v>38</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>22</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.23</v>
+      </c>
+      <c r="L83">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>74</v>
+      </c>
+      <c r="P83">
+        <v>98</v>
+      </c>
+      <c r="Q83">
+        <v>42</v>
+      </c>
+      <c r="R83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.245</v>
+      </c>
+      <c r="L84">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M84">
+        <v>-1</v>
+      </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>105</v>
+      </c>
+      <c r="P84">
+        <v>101</v>
+      </c>
+      <c r="Q84">
+        <v>67</v>
+      </c>
+      <c r="R84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85">
+        <v>38</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.06</v>
+      </c>
+      <c r="L85">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M85">
+        <v>-1</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>106</v>
+      </c>
+      <c r="P85">
+        <v>102</v>
+      </c>
+      <c r="Q85">
+        <v>92</v>
+      </c>
+      <c r="R85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86">
+        <v>38</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J86">
+        <v>0.12</v>
+      </c>
+      <c r="L86">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M86">
+        <v>-1</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>75</v>
+      </c>
+      <c r="P86">
+        <v>105</v>
+      </c>
+      <c r="Q86">
+        <v>117</v>
+      </c>
+      <c r="R86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87">
+        <v>38</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J87">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="M87">
+        <v>-1</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>76</v>
+      </c>
+      <c r="P87">
+        <v>106</v>
+      </c>
+      <c r="Q87">
+        <v>18</v>
+      </c>
+      <c r="R87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88">
+        <v>38</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J88">
+        <v>0.16</v>
+      </c>
+      <c r="L88">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M88">
+        <v>-1</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>107</v>
+      </c>
+      <c r="P88">
+        <v>109</v>
+      </c>
+      <c r="Q88">
+        <v>43</v>
+      </c>
+      <c r="R88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J89">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.84</v>
+      </c>
+      <c r="M89">
+        <v>-1</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>108</v>
+      </c>
+      <c r="P89">
+        <v>110</v>
+      </c>
+      <c r="Q89">
+        <v>68</v>
+      </c>
+      <c r="R89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90">
+        <v>38</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J90">
+        <v>0.18</v>
+      </c>
+      <c r="L90">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M90">
+        <v>-1</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>77</v>
+      </c>
+      <c r="P90">
+        <v>113</v>
+      </c>
+      <c r="Q90">
+        <v>93</v>
+      </c>
+      <c r="R90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91">
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J91">
+        <v>0.185</v>
+      </c>
+      <c r="L91">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M91">
+        <v>-1</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>78</v>
+      </c>
+      <c r="P91">
+        <v>114</v>
+      </c>
+      <c r="Q91">
+        <v>118</v>
+      </c>
+      <c r="R91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92">
+        <v>38</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J92">
+        <v>0.2</v>
+      </c>
+      <c r="L92">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>109</v>
+      </c>
+      <c r="P92">
+        <v>117</v>
+      </c>
+      <c r="Q92">
+        <v>19</v>
+      </c>
+      <c r="R92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J93">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L93">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M93">
+        <v>-1</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>110</v>
+      </c>
+      <c r="P93">
+        <v>118</v>
+      </c>
+      <c r="Q93">
+        <v>44</v>
+      </c>
+      <c r="R93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94">
+        <v>38</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J94">
+        <v>0.22</v>
+      </c>
+      <c r="L94">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M94">
+        <v>-1</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>79</v>
+      </c>
+      <c r="P94">
+        <v>121</v>
+      </c>
+      <c r="Q94">
+        <v>69</v>
+      </c>
+      <c r="R94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95">
+        <v>38</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>21</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J95">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>80</v>
+      </c>
+      <c r="P95">
+        <v>122</v>
+      </c>
+      <c r="Q95">
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96">
+        <v>38</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>24</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J96">
+        <v>0.24</v>
+      </c>
+      <c r="L96">
+        <v>0.84</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>111</v>
+      </c>
+      <c r="P96">
+        <v>125</v>
+      </c>
+      <c r="Q96">
+        <v>119</v>
+      </c>
+      <c r="R96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>25</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97:G127" si="3">(E97-1)*25+F97+1</f>
+        <v>126</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J97">
+        <v>0.245</v>
+      </c>
+      <c r="L97">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M97">
+        <v>-1</v>
+      </c>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>112</v>
+      </c>
+      <c r="P97">
+        <v>126</v>
+      </c>
+      <c r="Q97">
+        <v>20</v>
+      </c>
+      <c r="R97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98">
+        <v>38</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.2</v>
+      </c>
+      <c r="L98">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>81</v>
+      </c>
+      <c r="P98">
+        <v>67</v>
+      </c>
+      <c r="Q98">
+        <v>45</v>
+      </c>
+      <c r="R98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99">
+        <v>38</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L99">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>82</v>
+      </c>
+      <c r="P99">
+        <v>68</v>
+      </c>
+      <c r="Q99">
+        <v>70</v>
+      </c>
+      <c r="R99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100">
+        <v>38</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.22</v>
+      </c>
+      <c r="L100">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M100">
+        <v>-1</v>
+      </c>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>113</v>
+      </c>
+      <c r="P100">
+        <v>71</v>
+      </c>
+      <c r="Q100">
+        <v>95</v>
+      </c>
+      <c r="R100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
+        <v>38</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M101">
+        <v>-1</v>
+      </c>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>114</v>
+      </c>
+      <c r="P101">
+        <v>72</v>
+      </c>
+      <c r="Q101">
+        <v>120</v>
+      </c>
+      <c r="R101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>38</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0.24</v>
+      </c>
+      <c r="L102">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>83</v>
+      </c>
+      <c r="P102">
+        <v>75</v>
+      </c>
+      <c r="Q102">
+        <v>21</v>
+      </c>
+      <c r="R102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103">
+        <v>38</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>25</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0.245</v>
+      </c>
+      <c r="L103">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M103">
+        <v>-1</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>84</v>
+      </c>
+      <c r="P103">
+        <v>76</v>
+      </c>
+      <c r="Q103">
+        <v>46</v>
+      </c>
+      <c r="R103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J104">
+        <v>0.1</v>
+      </c>
+      <c r="L104">
+        <v>1080</v>
+      </c>
+      <c r="M104">
+        <v>-1</v>
+      </c>
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>115</v>
+      </c>
+      <c r="P104">
+        <v>79</v>
+      </c>
+      <c r="Q104">
+        <v>71</v>
+      </c>
+      <c r="R104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105">
+        <v>38</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.12</v>
+      </c>
+      <c r="L105">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="M105">
+        <v>-1</v>
+      </c>
+      <c r="N105" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>116</v>
+      </c>
+      <c r="P105">
+        <v>80</v>
+      </c>
+      <c r="Q105">
+        <v>96</v>
+      </c>
+      <c r="R105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106">
+        <v>38</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J106">
+        <v>0.155</v>
+      </c>
+      <c r="L106">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>85</v>
+      </c>
+      <c r="P106">
+        <v>83</v>
+      </c>
+      <c r="Q106">
+        <v>121</v>
+      </c>
+      <c r="R106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107">
+        <v>38</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.16</v>
+      </c>
+      <c r="L107">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>86</v>
+      </c>
+      <c r="P107">
+        <v>84</v>
+      </c>
+      <c r="Q107">
+        <v>22</v>
+      </c>
+      <c r="R107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108">
+        <v>38</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J108">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L108">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M108">
+        <v>-1</v>
+      </c>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>117</v>
+      </c>
+      <c r="P108">
+        <v>87</v>
+      </c>
+      <c r="Q108">
+        <v>47</v>
+      </c>
+      <c r="R108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109">
+        <v>38</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J109">
+        <v>0.18</v>
+      </c>
+      <c r="L109">
+        <v>0.83</v>
+      </c>
+      <c r="M109">
+        <v>-1</v>
+      </c>
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>118</v>
+      </c>
+      <c r="P109">
+        <v>88</v>
+      </c>
+      <c r="Q109">
+        <v>72</v>
+      </c>
+      <c r="R109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110">
+        <v>38</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>15</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="H110" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J110">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L110">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>87</v>
+      </c>
+      <c r="P110">
+        <v>91</v>
+      </c>
+      <c r="Q110">
+        <v>97</v>
+      </c>
+      <c r="R110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111">
+        <v>38</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J111">
+        <v>0.2</v>
+      </c>
+      <c r="L111">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>88</v>
+      </c>
+      <c r="P111">
+        <v>92</v>
+      </c>
+      <c r="Q111">
+        <v>122</v>
+      </c>
+      <c r="R111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112">
+        <v>38</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J112">
+        <v>0.215</v>
+      </c>
+      <c r="L112">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M112">
+        <v>-1</v>
+      </c>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>119</v>
+      </c>
+      <c r="P112">
+        <v>95</v>
+      </c>
+      <c r="Q112">
+        <v>23</v>
+      </c>
+      <c r="R112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113">
+        <v>38</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H113" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J113">
+        <v>0.22</v>
+      </c>
+      <c r="L113">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M113">
+        <v>-1</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>120</v>
+      </c>
+      <c r="P113">
+        <v>96</v>
+      </c>
+      <c r="Q113">
+        <v>48</v>
+      </c>
+      <c r="R113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J114">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L114">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="M114">
+        <v>-1</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>89</v>
+      </c>
+      <c r="P114">
+        <v>99</v>
+      </c>
+      <c r="Q114">
+        <v>73</v>
+      </c>
+      <c r="R114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.24</v>
+      </c>
+      <c r="L115">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M115">
+        <v>-1</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>90</v>
+      </c>
+      <c r="P115">
+        <v>100</v>
+      </c>
+      <c r="Q115">
+        <v>98</v>
+      </c>
+      <c r="R115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116">
+        <v>38</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J116">
+        <v>0.08</v>
+      </c>
+      <c r="L116">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M116">
+        <v>-1</v>
+      </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>121</v>
+      </c>
+      <c r="P116">
+        <v>103</v>
+      </c>
+      <c r="Q116">
+        <v>123</v>
+      </c>
+      <c r="R116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.1</v>
+      </c>
+      <c r="L117">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M117">
+        <v>-1</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>122</v>
+      </c>
+      <c r="P117">
+        <v>104</v>
+      </c>
+      <c r="Q117">
+        <v>24</v>
+      </c>
+      <c r="R117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118">
+        <v>38</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.15</v>
+      </c>
+      <c r="L118">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="M118">
+        <v>-1</v>
+      </c>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>91</v>
+      </c>
+      <c r="P118">
+        <v>107</v>
+      </c>
+      <c r="Q118">
+        <v>49</v>
+      </c>
+      <c r="R118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119">
+        <v>38</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J119">
+        <v>0.155</v>
+      </c>
+      <c r="L119">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>92</v>
+      </c>
+      <c r="P119">
+        <v>108</v>
+      </c>
+      <c r="Q119">
+        <v>74</v>
+      </c>
+      <c r="R119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120">
+        <v>38</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J120">
+        <v>0.17</v>
+      </c>
+      <c r="L120">
+        <v>0.79</v>
+      </c>
+      <c r="M120">
+        <v>-1</v>
+      </c>
+      <c r="N120" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>123</v>
+      </c>
+      <c r="P120">
+        <v>111</v>
+      </c>
+      <c r="Q120">
+        <v>99</v>
+      </c>
+      <c r="R120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121">
+        <v>38</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J121">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L121">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M121">
+        <v>-1</v>
+      </c>
+      <c r="N121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>124</v>
+      </c>
+      <c r="P121">
+        <v>112</v>
+      </c>
+      <c r="Q121">
+        <v>124</v>
+      </c>
+      <c r="R121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122">
+        <v>38</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.19</v>
+      </c>
+      <c r="L122">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M122">
+        <v>-1</v>
+      </c>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>93</v>
+      </c>
+      <c r="P122">
+        <v>115</v>
+      </c>
+      <c r="Q122">
+        <v>25</v>
+      </c>
+      <c r="R122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123">
+        <v>38</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>15</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L123">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>94</v>
+      </c>
+      <c r="P123">
+        <v>116</v>
+      </c>
+      <c r="Q123">
+        <v>50</v>
+      </c>
+      <c r="R123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124">
+        <v>38</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>18</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="H124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J124">
+        <v>0.21</v>
+      </c>
+      <c r="L124">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="M124">
+        <v>-1</v>
+      </c>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>125</v>
+      </c>
+      <c r="P124">
+        <v>119</v>
+      </c>
+      <c r="Q124">
+        <v>75</v>
+      </c>
+      <c r="R124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125">
+        <v>38</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>19</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="H125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J125">
+        <v>0.215</v>
+      </c>
+      <c r="L125">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>126</v>
+      </c>
+      <c r="P125">
+        <v>120</v>
+      </c>
+      <c r="Q125">
+        <v>100</v>
+      </c>
+      <c r="R125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126">
+        <v>38</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>22</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+      <c r="I126">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J126">
+        <v>0.23</v>
+      </c>
+      <c r="L126">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M126">
+        <v>-1</v>
+      </c>
+      <c r="N126" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>95</v>
+      </c>
+      <c r="P126">
+        <v>123</v>
+      </c>
+      <c r="Q126">
+        <v>125</v>
+      </c>
+      <c r="R126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127">
+        <v>38</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>23</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="H127" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J127">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="L127">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="M127">
+        <v>-1</v>
+      </c>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>96</v>
+      </c>
+      <c r="P127">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128">
+        <v>38</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="L128">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="N128" t="b">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>127</v>
+      </c>
+      <c r="P128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129">
+        <v>38</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="L129">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N129" t="b">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>128</v>
+      </c>
+      <c r="P129">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N129">
+    <sortCondition ref="B2:B129"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X129"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.9140625" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
@@ -11650,4 +17806,406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE345ED-17D5-49FF-AFF7-BB40D48FA6F7}">
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>42</v>
+      </c>
+      <c r="R2">
+        <v>43</v>
+      </c>
+      <c r="S2">
+        <v>44</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2">
+        <v>46</v>
+      </c>
+      <c r="V2">
+        <v>47</v>
+      </c>
+      <c r="W2">
+        <v>48</v>
+      </c>
+      <c r="X2">
+        <v>49</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>59</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
+      </c>
+      <c r="L3">
+        <v>62</v>
+      </c>
+      <c r="M3">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>65</v>
+      </c>
+      <c r="O3">
+        <v>66</v>
+      </c>
+      <c r="P3">
+        <v>67</v>
+      </c>
+      <c r="Q3">
+        <v>68</v>
+      </c>
+      <c r="R3">
+        <v>69</v>
+      </c>
+      <c r="S3">
+        <v>70</v>
+      </c>
+      <c r="T3">
+        <v>71</v>
+      </c>
+      <c r="U3">
+        <v>72</v>
+      </c>
+      <c r="V3">
+        <v>73</v>
+      </c>
+      <c r="W3">
+        <v>74</v>
+      </c>
+      <c r="X3">
+        <v>75</v>
+      </c>
+      <c r="Y3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>84</v>
+      </c>
+      <c r="I4">
+        <v>85</v>
+      </c>
+      <c r="J4">
+        <v>86</v>
+      </c>
+      <c r="K4">
+        <v>87</v>
+      </c>
+      <c r="L4">
+        <v>88</v>
+      </c>
+      <c r="M4">
+        <v>89</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>91</v>
+      </c>
+      <c r="P4">
+        <v>92</v>
+      </c>
+      <c r="Q4">
+        <v>93</v>
+      </c>
+      <c r="R4">
+        <v>94</v>
+      </c>
+      <c r="S4">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>96</v>
+      </c>
+      <c r="U4">
+        <v>97</v>
+      </c>
+      <c r="V4">
+        <v>98</v>
+      </c>
+      <c r="W4">
+        <v>99</v>
+      </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <v>110</v>
+      </c>
+      <c r="J5">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>113</v>
+      </c>
+      <c r="M5">
+        <v>114</v>
+      </c>
+      <c r="N5">
+        <v>115</v>
+      </c>
+      <c r="O5">
+        <v>116</v>
+      </c>
+      <c r="P5">
+        <v>117</v>
+      </c>
+      <c r="Q5">
+        <v>118</v>
+      </c>
+      <c r="R5">
+        <v>119</v>
+      </c>
+      <c r="S5">
+        <v>120</v>
+      </c>
+      <c r="T5">
+        <v>121</v>
+      </c>
+      <c r="U5">
+        <v>122</v>
+      </c>
+      <c r="V5">
+        <v>123</v>
+      </c>
+      <c r="W5">
+        <v>124</v>
+      </c>
+      <c r="X5">
+        <v>125</v>
+      </c>
+      <c r="Y5">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>